--- a/conf-core/src/test/resources/dataloader/properties-required-fields-filure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/properties-required-fields-filure-test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -132,9 +137,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -144,6 +148,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -192,7 +199,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -227,7 +234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,9 +445,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -489,7 +494,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="C4" t="s">
@@ -506,7 +511,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
       <c r="B5" t="s">
@@ -523,7 +528,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" t="s">
@@ -537,7 +542,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
       <c r="B7" t="s">
@@ -554,7 +559,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
